--- a/src/test/resources/TestData/LMS_TestData.xlsx
+++ b/src/test/resources/TestData/LMS_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siris\eclipse-workspace\Team4_LMS_Automators\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA6B99F-4A3E-4B23-9B10-7CE1C7F47AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60987D4B-5986-4F35-BEA3-02DD9D20A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{0B27291C-B3BE-40EF-8398-7E7798A97651}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -42,7 +42,22 @@
     <t>TestCase</t>
   </si>
   <si>
-    <t>LP01</t>
+    <t>validCredentials</t>
+  </si>
+  <si>
+    <t>InvalidCredentials</t>
+  </si>
+  <si>
+    <t>sdetnumpyn@gmail.com</t>
+  </si>
+  <si>
+    <t>dfer@3425</t>
+  </si>
+  <si>
+    <t>NullUsername</t>
+  </si>
+  <si>
+    <t>NullPassword</t>
   </si>
 </sst>
 </file>
@@ -74,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -82,14 +97,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7357623-083E-442A-A9F6-40B86AAABE9F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -413,35 +508,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8C4E02CF-3392-4766-905F-8ACBCC9FFF52}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{693298EC-A0EB-4C78-A878-9D5C1406D6F7}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{508C5821-98C7-49E4-9781-EEEF5757E212}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{0A072C19-80F3-4D99-90BC-CFEECFC008D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData/LMS_TestData.xlsx
+++ b/src/test/resources/TestData/LMS_TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siris\eclipse-workspace\Team4_LMS_Automators\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60987D4B-5986-4F35-BEA3-02DD9D20A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36735FE-3705-4442-A1B8-6B0EB1D31FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{0B27291C-B3BE-40EF-8398-7E7798A97651}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{0B27291C-B3BE-40EF-8398-7E7798A97651}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Batch" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Username</t>
   </si>
@@ -58,13 +59,70 @@
   </si>
   <si>
     <t>NullPassword</t>
+  </si>
+  <si>
+    <t>batchName</t>
+  </si>
+  <si>
+    <t>classTopic</t>
+  </si>
+  <si>
+    <t>classDescription</t>
+  </si>
+  <si>
+    <t>noOfClasses</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>recording</t>
+  </si>
+  <si>
+    <t>addClassWithOnlyMandatoryFields</t>
+  </si>
+  <si>
+    <t>addClassWithAllFields</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Programing Language</t>
+  </si>
+  <si>
+    <t>Into to javascript</t>
+  </si>
+  <si>
+    <t>https://www.google.com/</t>
+  </si>
+  <si>
+    <t>addCLassWithOptionalFeilds</t>
+  </si>
+  <si>
+    <t>Creating java classes</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +137,23 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,11 +246,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -185,10 +261,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{DF9C5AFA-8100-472E-B41B-17D62D961F46}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,9 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7357623-083E-442A-A9F6-40B86AAABE9F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -573,4 +653,109 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35503627-5E24-4370-9BB2-E4A30C5416B0}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{DB07E58F-FB81-41EE-9968-3B5FC8385D2E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/LMS_TestData.xlsx
+++ b/src/test/resources/TestData/LMS_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siris\eclipse-workspace\Team4_LMS_Automators\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36735FE-3705-4442-A1B8-6B0EB1D31FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718E5D1E-A710-45CA-881E-76AEB8FCFBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{0B27291C-B3BE-40EF-8398-7E7798A97651}"/>
   </bookViews>
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
@@ -264,7 +264,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -672,7 +671,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -687,10 +686,10 @@
       <c r="E1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="10" t="s">
